--- a/NEW HR/DONE/ENRIQUEZ, ERIBERTO.xlsx
+++ b/NEW HR/DONE/ENRIQUEZ, ERIBERTO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>4/1,2/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>06/2-3/2023</t>
   </si>
 </sst>
 </file>
@@ -634,6 +640,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -646,20 +661,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1356,7 +1362,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1405,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1469,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,7 +1529,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1595,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1658,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1756,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1815,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1880,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1923,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +1998,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2184,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2250,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2308,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2374,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,7 +2430,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2505,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,7 +2548,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2614,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2670,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2768,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2831,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,7 +3310,7 @@
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,14 +3340,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3352,14 +3358,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3372,14 +3378,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3405,18 +3411,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3463,7 +3469,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>47.25</v>
+        <v>52.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3473,7 +3479,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4851,15 +4857,19 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4867,15 +4877,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4883,15 +4897,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4899,15 +4917,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4915,7 +4937,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -5780,17 +5804,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5828,7 +5852,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A17" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5859,14 +5883,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5880,17 +5904,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5904,17 +5928,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5940,18 +5964,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6008,7 +6032,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>179.833</v>
+        <v>177.833</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6324,8 +6348,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -6334,10 +6362,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>2</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>

--- a/NEW HR/DONE/ENRIQUEZ, ERIBERTO.xlsx
+++ b/NEW HR/DONE/ENRIQUEZ, ERIBERTO.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>06/2-3/2023</t>
+  </si>
+  <si>
+    <t>7/7,8/2023</t>
   </si>
 </sst>
 </file>
@@ -640,15 +643,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -661,11 +655,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,7 +1365,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1408,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1472,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1532,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1598,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1661,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1759,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1818,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1883,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1926,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +2001,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2187,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2253,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2311,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2377,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2433,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2508,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2551,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2617,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2673,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2771,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2834,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,14 +3343,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3358,14 +3361,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3378,14 +3381,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3411,18 +3414,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5804,17 +5807,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5852,7 +5855,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A17" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5883,14 +5886,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5904,17 +5907,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5928,17 +5931,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5964,18 +5967,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6032,7 +6035,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>177.833</v>
+        <v>175.833</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6372,8 +6375,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -6382,10 +6389,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>2</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
